--- a/Proyecto/Data/Raw/MPLvsSB.xlsx
+++ b/Proyecto/Data/Raw/MPLvsSB.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,102 +8,97 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coordinación\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA290436-4BE8-46A6-AB9E-8F44A458CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C80D682A-CC77-4CE9-BD8A-0656E6FCEC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4EDF9547-D4D0-43E9-B129-708385E2D77E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="MPLvsSB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
+    <t>Caracteristicas</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
     <t>Funcionalidad</t>
   </si>
   <si>
+    <t>Se utiliza para hacer graficos basicos. Los conjuntos de datos se visualizan con la ayuda de graficos de barras, histogramas, graficos circulares, diagramas de dispersion, lineas, etc.</t>
+  </si>
+  <si>
+    <t>Seaborn contiene una serie de patrones y graficos para la visualizacion de datos. Utiliza temas fascinantes. Ayuda a compilar datos completos en un solo grafico. Tambien proporciona distribucion de datos.</t>
+  </si>
+  <si>
     <t>Sintaxis</t>
   </si>
   <si>
     <t>Utiliza una sintaxis comparativamente compleja y larga. Ejemplo: Sintaxis para bargraph- matplotlib.pyplot.bar(x_axis, y_axis).</t>
   </si>
   <si>
+    <t>Utiliza una sintaxis comparativamente simple que es mas facil de aprender y comprender. Ejemplo: Sintaxis para bargraph- seaborn.barplot(x_axis, y_axis).</t>
+  </si>
+  <si>
     <t>Repartir varias cifras</t>
   </si>
   <si>
+    <t>Podemos abrir y usar varias figuras simultaneamente. Sin embargo, estan cerrados claramente. Sintaxis para cerrar una figura a la vez: matplotlib.pyplot.close(). Sintaxis para cerrar todas las figuras: matplotlib.pyplot.close(“all”).</t>
+  </si>
+  <si>
+    <t>Seaborn establece el tiempo para la creacion de cada figura. Sin embargo, puede provocar (OOM) problemas de falta de memoria.</t>
+  </si>
+  <si>
+    <t>Visualizacio</t>
+  </si>
+  <si>
+    <t>Matplotlib esta bien conectado con Numpy y Pandas y actua como un paquete de graficos para la visualizacion de datos en Python. Pyplot proporciona funciones y sintaxis similares a las de MATLAB. Por lo tanto, los usuarios de MATLAB pueden estudiarlo facilmente.</t>
+  </si>
+  <si>
+    <t>Seaborn se siente mas comodo en el manejo de marcos de datos de Pandas. Utiliza conjuntos basicos de metodos para proporcionar hermosos graficos en Python.</t>
+  </si>
+  <si>
     <t>Flexibilidad</t>
   </si>
   <si>
+    <t>Matplotlib es un altamente personalizado y robusto.</t>
+  </si>
+  <si>
+    <t>Seaborn evita la superposicion de tramas con la ayuda de sus temas predeterminados.</t>
+  </si>
+  <si>
     <t>Marcos de datos y arreglos</t>
   </si>
   <si>
+    <t>Matplotlib funciona de manera eficiente con marcos de datos y arrays. Trata figuras y ejes como objetos. Contiene varias API con estado para el trazado. Por lo tanto, los metodos similares a plot() pueden funcionar sin parametros.</t>
+  </si>
+  <si>
+    <t>Seaborn es mucho mas funcional y organizado que Matplotlib y trata todo el conjunto de datos como una sola unidad. Seaborn no tiene tanto estado y, por lo tanto, se requieren parametros al llamar a metodos como plot().</t>
+  </si>
+  <si>
     <t>Casos de uso</t>
   </si>
   <si>
-    <t>Matplotlib</t>
-  </si>
-  <si>
-    <t>Seaborn</t>
-  </si>
-  <si>
-    <t>Utiliza una sintaxis comparativamente simple que es mas facil de aprender y comprender. Ejemplo: Sintaxis para bargraph- seaborn.barplot(x_axis, y_axis).</t>
-  </si>
-  <si>
-    <t>Matplotlib funciona de manera eficiente con marcos de datos y arrays. Trata figuras y ejes como objetos. Contiene varias API con estado para el trazado. Por lo tanto, los metodos similares a plot() pueden funcionar sin parametros.</t>
-  </si>
-  <si>
-    <t>Caracteristicas</t>
-  </si>
-  <si>
-    <t>Se utiliza para hacer graficos basicos. Los conjuntos de datos se visualizan con la ayuda de graficos de barras, histogramas, graficos circulares, diagramas de dispersion, lineas, etc.</t>
-  </si>
-  <si>
-    <t>Seaborn contiene una serie de patrones y graficos para la visualizacion de datos. Utiliza temas fascinantes. Ayuda a compilar datos completos en un solo grafico. Tambien proporciona distribucion de datos.</t>
-  </si>
-  <si>
-    <t>Visualizacio</t>
-  </si>
-  <si>
-    <t>Podemos abrir y usar varias figuras simultaneamente. Sin embargo, estan cerrados claramente. Sintaxis para cerrar una figura a la vez: matplotlib.pyplot.close(). Sintaxis para cerrar todas las figuras: matplotlib.pyplot.close(“all”).</t>
-  </si>
-  <si>
-    <t>Matplotlib es un altamente personalizado y robusto.</t>
-  </si>
-  <si>
     <t>Matplotlib traza varios graficos usando Pandas y Numpy.</t>
   </si>
   <si>
-    <t>Seaborn establece el tiempo para la creacion de cada figura. Sin embargo, puede provocar (OOM) problemas de falta de memoria.</t>
-  </si>
-  <si>
-    <t>Seaborn evita la superposicion de tramas con la ayuda de sus temas predeterminados.</t>
-  </si>
-  <si>
-    <t>Seaborn es mucho mas funcional y organizado que Matplotlib y trata todo el conjunto de datos como una sola unidad. Seaborn no tiene tanto estado y, por lo tanto, se requieren parametros al llamar a metodos como plot().</t>
-  </si>
-  <si>
     <t>Seaborn es la version extendida de Matplotlib que usa Matplotlib junto con Numpy y Pandas para trazar graficos.</t>
-  </si>
-  <si>
-    <t>Matplotlib esta bien conectado con Numpy y Pandas y actua como un paquete de graficos para la visualizacion de datos en Python. Pyplot proporciona funciones y sintaxis similares a las de MATLAB. Por lo tanto, los usuarios de MATLAB pueden estudiarlo facilmente.</t>
-  </si>
-  <si>
-    <t>Seaborn se siente mas comodo en el manejo de marcos de datos de Pandas. Utiliza conjuntos basicos de metodos para proporcionar hermosos graficos en Python.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +106,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -128,15 +423,409 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,101 +1136,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC9A04-A02A-4252-9CFB-4B101F9ABB6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
